--- a/Cronograma de trabajo - Proyectos analíticos TEA.xlsx
+++ b/Cronograma de trabajo - Proyectos analíticos TEA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cesar_quezada\ProyectosIA\Proyectos_PALMAS\PROYECTO_01_analitica_descriptiva_TEA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DD419A-E25E-46B0-9722-69C918629B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494C40E0-040C-4993-96F2-82106CEEC755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{88CDA639-9912-4C35-9D80-91ED66DD75A0}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="60">
   <si>
     <t>JUNIO</t>
   </si>
@@ -507,6 +507,12 @@
   <si>
     <t>Conexión con Power bi</t>
   </si>
+  <si>
+    <t>PROYECTO 02 - PESOS DE VARIABLES</t>
+  </si>
+  <si>
+    <t>REUNIÓN principal RAO</t>
+  </si>
 </sst>
 </file>
 
@@ -884,7 +890,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -985,10 +991,25 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1003,20 +1024,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1376,242 +1386,242 @@
       </c>
     </row>
     <row r="3" spans="2:101 16383:16383" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="51" t="s">
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="48"/>
-      <c r="AA3" s="48"/>
-      <c r="AB3" s="48"/>
-      <c r="AC3" s="48"/>
-      <c r="AD3" s="48"/>
-      <c r="AE3" s="48"/>
-      <c r="AF3" s="51"/>
-      <c r="AG3" s="51"/>
-      <c r="AH3" s="51"/>
-      <c r="AI3" s="51"/>
-      <c r="AJ3" s="51"/>
-      <c r="AK3" s="51"/>
-      <c r="AL3" s="51"/>
-      <c r="AM3" s="48"/>
-      <c r="AN3" s="48"/>
-      <c r="AO3" s="52"/>
-      <c r="AP3" s="43" t="s">
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="42"/>
+      <c r="AD3" s="42"/>
+      <c r="AE3" s="42"/>
+      <c r="AF3" s="46"/>
+      <c r="AG3" s="46"/>
+      <c r="AH3" s="46"/>
+      <c r="AI3" s="46"/>
+      <c r="AJ3" s="46"/>
+      <c r="AK3" s="46"/>
+      <c r="AL3" s="46"/>
+      <c r="AM3" s="42"/>
+      <c r="AN3" s="42"/>
+      <c r="AO3" s="47"/>
+      <c r="AP3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="AQ3" s="43"/>
-      <c r="AR3" s="43"/>
-      <c r="AS3" s="43"/>
-      <c r="AT3" s="43"/>
-      <c r="AU3" s="43"/>
-      <c r="AV3" s="43"/>
-      <c r="AW3" s="43"/>
-      <c r="AX3" s="43"/>
-      <c r="AY3" s="43"/>
-      <c r="AZ3" s="43"/>
-      <c r="BA3" s="43"/>
-      <c r="BB3" s="43"/>
-      <c r="BC3" s="43"/>
-      <c r="BD3" s="43"/>
-      <c r="BE3" s="43"/>
-      <c r="BF3" s="43"/>
-      <c r="BG3" s="43"/>
-      <c r="BH3" s="43"/>
-      <c r="BI3" s="43"/>
-      <c r="BJ3" s="43"/>
-      <c r="BK3" s="43"/>
-      <c r="BL3" s="43"/>
-      <c r="BM3" s="43"/>
-      <c r="BN3" s="43"/>
-      <c r="BO3" s="43"/>
-      <c r="BP3" s="43"/>
-      <c r="BQ3" s="43"/>
-      <c r="BR3" s="43"/>
-      <c r="BS3" s="43"/>
-      <c r="BT3" s="43"/>
-      <c r="BU3" s="44"/>
-      <c r="BV3" s="43" t="s">
+      <c r="AQ3" s="44"/>
+      <c r="AR3" s="44"/>
+      <c r="AS3" s="44"/>
+      <c r="AT3" s="44"/>
+      <c r="AU3" s="44"/>
+      <c r="AV3" s="44"/>
+      <c r="AW3" s="44"/>
+      <c r="AX3" s="44"/>
+      <c r="AY3" s="44"/>
+      <c r="AZ3" s="44"/>
+      <c r="BA3" s="44"/>
+      <c r="BB3" s="44"/>
+      <c r="BC3" s="44"/>
+      <c r="BD3" s="44"/>
+      <c r="BE3" s="44"/>
+      <c r="BF3" s="44"/>
+      <c r="BG3" s="44"/>
+      <c r="BH3" s="44"/>
+      <c r="BI3" s="44"/>
+      <c r="BJ3" s="44"/>
+      <c r="BK3" s="44"/>
+      <c r="BL3" s="44"/>
+      <c r="BM3" s="44"/>
+      <c r="BN3" s="44"/>
+      <c r="BO3" s="44"/>
+      <c r="BP3" s="44"/>
+      <c r="BQ3" s="44"/>
+      <c r="BR3" s="44"/>
+      <c r="BS3" s="44"/>
+      <c r="BT3" s="44"/>
+      <c r="BU3" s="49"/>
+      <c r="BV3" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="BW3" s="43"/>
-      <c r="BX3" s="43"/>
-      <c r="BY3" s="43"/>
-      <c r="BZ3" s="43"/>
-      <c r="CA3" s="43"/>
-      <c r="CB3" s="43"/>
-      <c r="CC3" s="43"/>
-      <c r="CD3" s="43"/>
-      <c r="CE3" s="43"/>
-      <c r="CF3" s="43"/>
-      <c r="CG3" s="43"/>
-      <c r="CH3" s="43"/>
-      <c r="CI3" s="43"/>
-      <c r="CJ3" s="43"/>
-      <c r="CK3" s="43"/>
-      <c r="CL3" s="43"/>
-      <c r="CM3" s="43"/>
-      <c r="CN3" s="43"/>
-      <c r="CO3" s="43"/>
-      <c r="CP3" s="43"/>
-      <c r="CQ3" s="43"/>
-      <c r="CR3" s="43"/>
-      <c r="CS3" s="43"/>
-      <c r="CT3" s="43"/>
-      <c r="CU3" s="43"/>
-      <c r="CV3" s="43"/>
-      <c r="CW3" s="43"/>
+      <c r="BW3" s="44"/>
+      <c r="BX3" s="44"/>
+      <c r="BY3" s="44"/>
+      <c r="BZ3" s="44"/>
+      <c r="CA3" s="44"/>
+      <c r="CB3" s="44"/>
+      <c r="CC3" s="44"/>
+      <c r="CD3" s="44"/>
+      <c r="CE3" s="44"/>
+      <c r="CF3" s="44"/>
+      <c r="CG3" s="44"/>
+      <c r="CH3" s="44"/>
+      <c r="CI3" s="44"/>
+      <c r="CJ3" s="44"/>
+      <c r="CK3" s="44"/>
+      <c r="CL3" s="44"/>
+      <c r="CM3" s="44"/>
+      <c r="CN3" s="44"/>
+      <c r="CO3" s="44"/>
+      <c r="CP3" s="44"/>
+      <c r="CQ3" s="44"/>
+      <c r="CR3" s="44"/>
+      <c r="CS3" s="44"/>
+      <c r="CT3" s="44"/>
+      <c r="CU3" s="44"/>
+      <c r="CV3" s="44"/>
+      <c r="CW3" s="44"/>
     </row>
     <row r="4" spans="2:101 16383:16383" x14ac:dyDescent="0.3">
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="49" t="s">
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="49" t="s">
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="S4" s="49"/>
-      <c r="T4" s="49"/>
-      <c r="U4" s="49"/>
-      <c r="V4" s="49"/>
-      <c r="W4" s="49"/>
-      <c r="X4" s="49"/>
-      <c r="Y4" s="51" t="s">
+      <c r="S4" s="43"/>
+      <c r="T4" s="43"/>
+      <c r="U4" s="43"/>
+      <c r="V4" s="43"/>
+      <c r="W4" s="43"/>
+      <c r="X4" s="43"/>
+      <c r="Y4" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="Z4" s="51"/>
-      <c r="AA4" s="51"/>
-      <c r="AB4" s="51"/>
-      <c r="AC4" s="51"/>
-      <c r="AD4" s="51"/>
-      <c r="AE4" s="51"/>
-      <c r="AF4" s="49" t="s">
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="46"/>
+      <c r="AE4" s="46"/>
+      <c r="AF4" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="AG4" s="49"/>
-      <c r="AH4" s="49"/>
-      <c r="AI4" s="49"/>
-      <c r="AJ4" s="49"/>
-      <c r="AK4" s="49"/>
-      <c r="AL4" s="49"/>
-      <c r="AM4" s="43" t="s">
+      <c r="AG4" s="43"/>
+      <c r="AH4" s="43"/>
+      <c r="AI4" s="43"/>
+      <c r="AJ4" s="43"/>
+      <c r="AK4" s="43"/>
+      <c r="AL4" s="43"/>
+      <c r="AM4" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="AN4" s="43"/>
-      <c r="AO4" s="43"/>
-      <c r="AP4" s="43" t="s">
+      <c r="AN4" s="44"/>
+      <c r="AO4" s="44"/>
+      <c r="AP4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="AQ4" s="43"/>
-      <c r="AR4" s="43"/>
-      <c r="AS4" s="43"/>
-      <c r="AT4" s="43" t="s">
+      <c r="AQ4" s="44"/>
+      <c r="AR4" s="44"/>
+      <c r="AS4" s="44"/>
+      <c r="AT4" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="AU4" s="43"/>
-      <c r="AV4" s="43"/>
-      <c r="AW4" s="43"/>
-      <c r="AX4" s="43"/>
-      <c r="AY4" s="43"/>
-      <c r="AZ4" s="43"/>
-      <c r="BA4" s="43" t="s">
+      <c r="AU4" s="44"/>
+      <c r="AV4" s="44"/>
+      <c r="AW4" s="44"/>
+      <c r="AX4" s="44"/>
+      <c r="AY4" s="44"/>
+      <c r="AZ4" s="44"/>
+      <c r="BA4" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="BB4" s="43"/>
-      <c r="BC4" s="43"/>
-      <c r="BD4" s="43"/>
-      <c r="BE4" s="43"/>
-      <c r="BF4" s="43"/>
-      <c r="BG4" s="43"/>
-      <c r="BH4" s="43" t="s">
+      <c r="BB4" s="44"/>
+      <c r="BC4" s="44"/>
+      <c r="BD4" s="44"/>
+      <c r="BE4" s="44"/>
+      <c r="BF4" s="44"/>
+      <c r="BG4" s="44"/>
+      <c r="BH4" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="BI4" s="43"/>
-      <c r="BJ4" s="43"/>
-      <c r="BK4" s="43"/>
-      <c r="BL4" s="43"/>
-      <c r="BM4" s="43"/>
-      <c r="BN4" s="43"/>
-      <c r="BO4" s="45" t="s">
+      <c r="BI4" s="44"/>
+      <c r="BJ4" s="44"/>
+      <c r="BK4" s="44"/>
+      <c r="BL4" s="44"/>
+      <c r="BM4" s="44"/>
+      <c r="BN4" s="44"/>
+      <c r="BO4" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="BP4" s="46"/>
-      <c r="BQ4" s="46"/>
-      <c r="BR4" s="46"/>
-      <c r="BS4" s="46"/>
-      <c r="BT4" s="47"/>
-      <c r="BU4" s="43" t="s">
+      <c r="BP4" s="51"/>
+      <c r="BQ4" s="51"/>
+      <c r="BR4" s="51"/>
+      <c r="BS4" s="51"/>
+      <c r="BT4" s="52"/>
+      <c r="BU4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="BV4" s="43"/>
-      <c r="BW4" s="43"/>
-      <c r="BX4" s="43"/>
-      <c r="BY4" s="43"/>
-      <c r="BZ4" s="43"/>
-      <c r="CA4" s="43"/>
-      <c r="CB4" s="43"/>
-      <c r="CC4" s="42" t="s">
+      <c r="BV4" s="44"/>
+      <c r="BW4" s="44"/>
+      <c r="BX4" s="44"/>
+      <c r="BY4" s="44"/>
+      <c r="BZ4" s="44"/>
+      <c r="CA4" s="44"/>
+      <c r="CB4" s="44"/>
+      <c r="CC4" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="CD4" s="42"/>
-      <c r="CE4" s="42"/>
-      <c r="CF4" s="42"/>
-      <c r="CG4" s="42"/>
-      <c r="CH4" s="42"/>
-      <c r="CI4" s="42"/>
-      <c r="CJ4" s="42" t="s">
+      <c r="CD4" s="48"/>
+      <c r="CE4" s="48"/>
+      <c r="CF4" s="48"/>
+      <c r="CG4" s="48"/>
+      <c r="CH4" s="48"/>
+      <c r="CI4" s="48"/>
+      <c r="CJ4" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="CK4" s="42"/>
-      <c r="CL4" s="42"/>
-      <c r="CM4" s="42"/>
-      <c r="CN4" s="42"/>
-      <c r="CO4" s="42"/>
-      <c r="CP4" s="42"/>
-      <c r="CQ4" s="42" t="s">
+      <c r="CK4" s="48"/>
+      <c r="CL4" s="48"/>
+      <c r="CM4" s="48"/>
+      <c r="CN4" s="48"/>
+      <c r="CO4" s="48"/>
+      <c r="CP4" s="48"/>
+      <c r="CQ4" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="CR4" s="42"/>
-      <c r="CS4" s="42"/>
-      <c r="CT4" s="42"/>
-      <c r="CU4" s="42"/>
-      <c r="CV4" s="42"/>
-      <c r="CW4" s="42"/>
+      <c r="CR4" s="48"/>
+      <c r="CS4" s="48"/>
+      <c r="CT4" s="48"/>
+      <c r="CU4" s="48"/>
+      <c r="CV4" s="48"/>
+      <c r="CW4" s="48"/>
     </row>
     <row r="5" spans="2:101 16383:16383" x14ac:dyDescent="0.3">
       <c r="D5" s="16" t="s">
@@ -5759,14 +5769,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="K3:AO3"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="AF4:AL4"/>
-    <mergeCell ref="AM4:AO4"/>
     <mergeCell ref="CC4:CI4"/>
     <mergeCell ref="CJ4:CP4"/>
     <mergeCell ref="CQ4:CW4"/>
@@ -5778,6 +5780,14 @@
     <mergeCell ref="BO4:BT4"/>
     <mergeCell ref="BU4:CB4"/>
     <mergeCell ref="AP4:AS4"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="K3:AO3"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="AF4:AL4"/>
+    <mergeCell ref="AM4:AO4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -5786,13 +5796,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7588859A-7C09-47AF-9811-660F44E5F196}">
-  <dimension ref="A1:AL25"/>
+  <dimension ref="A1:AO26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AG25" sqref="AG25"/>
+      <selection pane="bottomRight" activeCell="AJ33" sqref="AJ33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5808,90 +5818,90 @@
   <sheetData>
     <row r="1" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="43" t="s">
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="43"/>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="43"/>
-      <c r="AJ3" s="43"/>
-      <c r="AK3" s="43"/>
-      <c r="AL3" s="43"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="44"/>
+      <c r="AD3" s="44"/>
+      <c r="AE3" s="44"/>
+      <c r="AF3" s="44"/>
+      <c r="AG3" s="44"/>
+      <c r="AH3" s="44"/>
+      <c r="AI3" s="44"/>
+      <c r="AJ3" s="44"/>
+      <c r="AK3" s="44"/>
+      <c r="AL3" s="44"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="43" t="s">
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="42" t="s">
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42" t="s">
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="42" t="s">
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="48"/>
+      <c r="AB4" s="48"/>
+      <c r="AC4" s="48"/>
+      <c r="AD4" s="48"/>
+      <c r="AE4" s="48"/>
+      <c r="AF4" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="AG4" s="42"/>
-      <c r="AH4" s="42"/>
-      <c r="AI4" s="42"/>
-      <c r="AJ4" s="42"/>
-      <c r="AK4" s="42"/>
-      <c r="AL4" s="42"/>
+      <c r="AG4" s="48"/>
+      <c r="AH4" s="48"/>
+      <c r="AI4" s="48"/>
+      <c r="AJ4" s="48"/>
+      <c r="AK4" s="48"/>
+      <c r="AL4" s="48"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="D5" s="16" t="s">
@@ -6109,7 +6119,7 @@
     </row>
     <row r="7" spans="1:38" ht="18" x14ac:dyDescent="0.3">
       <c r="B7" s="40" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C7" s="22"/>
     </row>
@@ -6370,7 +6380,7 @@
       <c r="AL13" s="9"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="B14" s="4"/>
+      <c r="B14" s="2"/>
       <c r="C14" s="37" t="s">
         <v>16</v>
       </c>
@@ -6390,7 +6400,6 @@
       <c r="Q14" s="9"/>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
       <c r="U14" s="7"/>
       <c r="V14" s="7"/>
       <c r="W14" s="9"/>
@@ -6411,7 +6420,7 @@
       <c r="AL14" s="9"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="B15" s="4"/>
+      <c r="B15" s="2"/>
       <c r="C15" s="37" t="s">
         <v>51</v>
       </c>
@@ -6425,33 +6434,30 @@
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="L15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15" s="7"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="9"/>
       <c r="Q15" s="9"/>
-      <c r="R15" s="7"/>
+      <c r="R15" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="S15" s="7"/>
-      <c r="T15" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="U15" s="7"/>
-      <c r="V15" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="T15" s="7"/>
+      <c r="U15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="V15" s="7"/>
       <c r="W15" s="9"/>
       <c r="X15" s="9"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="8" t="s">
+      <c r="Y15" s="8" t="s">
         <v>15</v>
       </c>
       <c r="AA15" s="7"/>
-      <c r="AB15" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="AB15" s="7"/>
       <c r="AC15" s="7"/>
       <c r="AD15" s="9"/>
       <c r="AE15" s="9"/>
@@ -6464,17 +6470,13 @@
       <c r="AL15" s="9"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="B16" s="4"/>
-      <c r="C16" s="37" t="s">
-        <v>18</v>
+      <c r="B16" s="2"/>
+      <c r="C16" s="53" t="s">
+        <v>59</v>
       </c>
       <c r="D16" s="7"/>
-      <c r="E16" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="32"/>
       <c r="I16" s="9"/>
@@ -6496,7 +6498,9 @@
       <c r="Y16" s="7"/>
       <c r="Z16" s="7"/>
       <c r="AA16" s="7"/>
-      <c r="AB16" s="7"/>
+      <c r="AB16" s="12" t="s">
+        <v>15</v>
+      </c>
       <c r="AC16" s="7"/>
       <c r="AD16" s="9"/>
       <c r="AE16" s="9"/>
@@ -6508,33 +6512,27 @@
       <c r="AK16" s="9"/>
       <c r="AL16" s="9"/>
     </row>
-    <row r="17" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
-      <c r="C17" s="36" t="s">
-        <v>19</v>
+      <c r="C17" s="37" t="s">
+        <v>18</v>
       </c>
       <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="E17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>15</v>
+      </c>
       <c r="G17" s="7"/>
       <c r="H17" s="32"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
-      <c r="K17" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="N17" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="O17" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
       <c r="R17" s="7"/>
@@ -6559,10 +6557,10 @@
       <c r="AK17" s="9"/>
       <c r="AL17" s="9"/>
     </row>
-    <row r="18" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
       <c r="C18" s="36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -6571,8 +6569,12 @@
       <c r="H18" s="32"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
+      <c r="K18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="M18" s="8" t="s">
         <v>15</v>
       </c>
@@ -6606,10 +6608,10 @@
       <c r="AK18" s="9"/>
       <c r="AL18" s="9"/>
     </row>
-    <row r="19" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
       <c r="C19" s="36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -6620,26 +6622,22 @@
       <c r="J19" s="9"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
+      <c r="M19" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
-      <c r="R19" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="S19" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="T19" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="U19" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="V19" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
       <c r="W19" s="9"/>
       <c r="X19" s="9"/>
       <c r="Y19" s="7"/>
@@ -6656,11 +6654,12 @@
       <c r="AJ19" s="7"/>
       <c r="AK19" s="9"/>
       <c r="AL19" s="9"/>
+      <c r="AO19" s="54"/>
     </row>
-    <row r="20" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
       <c r="C20" s="36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -6676,7 +6675,9 @@
       <c r="O20" s="7"/>
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
-      <c r="R20" s="7"/>
+      <c r="R20" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="S20" s="8" t="s">
         <v>15</v>
       </c>
@@ -6691,12 +6692,8 @@
       </c>
       <c r="W20" s="9"/>
       <c r="X20" s="9"/>
-      <c r="Y20" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z20" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
       <c r="AA20" s="7"/>
       <c r="AB20" s="7"/>
       <c r="AC20" s="7"/>
@@ -6710,10 +6707,10 @@
       <c r="AK20" s="9"/>
       <c r="AL20" s="9"/>
     </row>
-    <row r="21" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
       <c r="C21" s="36" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
@@ -6730,10 +6727,18 @@
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
       <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
+      <c r="S21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="T21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="U21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="V21" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="W21" s="9"/>
       <c r="X21" s="9"/>
       <c r="Y21" s="8" t="s">
@@ -6742,12 +6747,8 @@
       <c r="Z21" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="AA21" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB21" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="7"/>
       <c r="AC21" s="7"/>
       <c r="AD21" s="9"/>
       <c r="AE21" s="9"/>
@@ -6759,10 +6760,10 @@
       <c r="AK21" s="9"/>
       <c r="AL21" s="9"/>
     </row>
-    <row r="22" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
       <c r="C22" s="36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -6785,7 +6786,9 @@
       <c r="V22" s="7"/>
       <c r="W22" s="9"/>
       <c r="X22" s="9"/>
-      <c r="Y22" s="7"/>
+      <c r="Y22" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="Z22" s="8" t="s">
         <v>15</v>
       </c>
@@ -6795,27 +6798,21 @@
       <c r="AB22" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="AC22" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="AC22" s="7"/>
       <c r="AD22" s="9"/>
       <c r="AE22" s="9"/>
-      <c r="AF22" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG22" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="AF22" s="7"/>
+      <c r="AG22" s="7"/>
       <c r="AH22" s="7"/>
       <c r="AI22" s="7"/>
       <c r="AJ22" s="7"/>
       <c r="AK22" s="9"/>
       <c r="AL22" s="9"/>
     </row>
-    <row r="23" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -6839,28 +6836,36 @@
       <c r="W23" s="9"/>
       <c r="X23" s="9"/>
       <c r="Y23" s="7"/>
-      <c r="Z23" s="7"/>
-      <c r="AA23" s="7"/>
-      <c r="AB23" s="7"/>
-      <c r="AC23" s="7"/>
+      <c r="Z23" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA23" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB23" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC23" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="AD23" s="9"/>
       <c r="AE23" s="9"/>
-      <c r="AF23" s="7"/>
+      <c r="AF23" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="AG23" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="AH23" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="AH23" s="7"/>
       <c r="AI23" s="7"/>
       <c r="AJ23" s="7"/>
       <c r="AK23" s="9"/>
       <c r="AL23" s="9"/>
     </row>
-    <row r="24" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:41" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
-      <c r="C24" s="5" t="s">
-        <v>23</v>
+      <c r="C24" s="36" t="s">
+        <v>26</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
@@ -6891,17 +6896,21 @@
       <c r="AD24" s="9"/>
       <c r="AE24" s="9"/>
       <c r="AF24" s="7"/>
-      <c r="AG24" s="7"/>
-      <c r="AH24" s="7"/>
+      <c r="AG24" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH24" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="AI24" s="7"/>
       <c r="AJ24" s="7"/>
       <c r="AK24" s="9"/>
       <c r="AL24" s="9"/>
     </row>
-    <row r="25" spans="2:38" x14ac:dyDescent="0.3">
-      <c r="B25" s="1"/>
+    <row r="25" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B25" s="2"/>
       <c r="C25" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -6933,23 +6942,64 @@
       <c r="AE25" s="9"/>
       <c r="AF25" s="7"/>
       <c r="AG25" s="7"/>
-      <c r="AH25" s="13" t="s">
-        <v>15</v>
-      </c>
+      <c r="AH25" s="7"/>
       <c r="AI25" s="7"/>
       <c r="AJ25" s="7"/>
       <c r="AK25" s="9"/>
       <c r="AL25" s="9"/>
     </row>
+    <row r="26" spans="2:41" x14ac:dyDescent="0.3">
+      <c r="B26" s="1"/>
+      <c r="C26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="9"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="7"/>
+      <c r="AC26" s="7"/>
+      <c r="AD26" s="9"/>
+      <c r="AE26" s="9"/>
+      <c r="AF26" s="7"/>
+      <c r="AG26" s="7"/>
+      <c r="AH26" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI26" s="7"/>
+      <c r="AJ26" s="7"/>
+      <c r="AK26" s="9"/>
+      <c r="AL26" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="K3:AL3"/>
     <mergeCell ref="R4:X4"/>
     <mergeCell ref="Y4:AE4"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="D4:I4"/>
     <mergeCell ref="J4:Q4"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="K3:AL3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -6957,6 +7007,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="7008f986-f385-46ea-82cd-9aca29332cec">
@@ -6965,15 +7024,6 @@
     <TaxCatchAll xmlns="c3e160b1-eb26-4be6-9d33-d58c8270fa91" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7192,20 +7242,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{014A6688-F2B6-4704-A41D-4E7E42EE1690}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4F2D822-5609-44C3-83FF-FC62BE24A726}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="7008f986-f385-46ea-82cd-9aca29332cec"/>
     <ds:schemaRef ds:uri="c3e160b1-eb26-4be6-9d33-d58c8270fa91"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{014A6688-F2B6-4704-A41D-4E7E42EE1690}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
